--- a/sample_data/allocation_rules.xlsx
+++ b/sample_data/allocation_rules.xlsx
@@ -7,81 +7,43 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="parent_header" sheetId="1" r:id="rId1"/>
-    <sheet name="children_table" sheetId="2" r:id="rId2"/>
-    <sheet name="rules_flat" sheetId="3" r:id="rId3"/>
+    <sheet name="rules_flat" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
-  <si>
-    <t>Id OPK (rodzic)</t>
-  </si>
-  <si>
-    <t>OPK (nazwa)</t>
-  </si>
-  <si>
-    <t>Kwota</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>child_id</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>valid_from</t>
+  </si>
+  <si>
+    <t>valid_to</t>
   </si>
   <si>
     <t>73</t>
   </si>
   <si>
-    <t>Wydział MO</t>
-  </si>
-  <si>
-    <t>Id OPK (dziecko)</t>
+    <t>73.54</t>
   </si>
   <si>
     <t>KVI</t>
-  </si>
-  <si>
-    <t>73.54</t>
-  </si>
-  <si>
-    <t>73.55</t>
-  </si>
-  <si>
-    <t>73.516</t>
-  </si>
-  <si>
-    <t>73.515</t>
-  </si>
-  <si>
-    <t>Stanowisko 54</t>
-  </si>
-  <si>
-    <t>Stanowisko 55</t>
-  </si>
-  <si>
-    <t>Stanowisko 516</t>
-  </si>
-  <si>
-    <t>Stanowisko 515</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>child_id</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>valid_from</t>
-  </si>
-  <si>
-    <t>valid_to</t>
   </si>
 </sst>
 </file>
@@ -439,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,179 +417,31 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data/allocation_rules.xlsx
+++ b/sample_data/allocation_rules.xlsx
@@ -7,14 +7,61 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="rules_flat" sheetId="1" r:id="rId1"/>
+    <sheet name="parent_header" sheetId="1" r:id="rId1"/>
+    <sheet name="children_table" sheetId="2" r:id="rId2"/>
+    <sheet name="rules_flat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+  <si>
+    <t>Id OPK (rodzic)</t>
+  </si>
+  <si>
+    <t>OPK (nazwa)</t>
+  </si>
+  <si>
+    <t>Kwota</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Wydział MO</t>
+  </si>
+  <si>
+    <t>Id OPK (dziecko)</t>
+  </si>
+  <si>
+    <t>KVI</t>
+  </si>
+  <si>
+    <t>73.54</t>
+  </si>
+  <si>
+    <t>73.55</t>
+  </si>
+  <si>
+    <t>73.516</t>
+  </si>
+  <si>
+    <t>73.515</t>
+  </si>
+  <si>
+    <t>Stanowisko 54</t>
+  </si>
+  <si>
+    <t>Stanowisko 55</t>
+  </si>
+  <si>
+    <t>Stanowisko 516</t>
+  </si>
+  <si>
+    <t>Stanowisko 515</t>
+  </si>
   <si>
     <t>parent_id</t>
   </si>
@@ -35,15 +82,6 @@
   </si>
   <si>
     <t>valid_to</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>73.54</t>
-  </si>
-  <si>
-    <t>KVI</t>
   </si>
 </sst>
 </file>
@@ -401,47 +439,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
